--- a/output/temp_bothtogether.xlsx
+++ b/output/temp_bothtogether.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -394,36 +394,36 @@
         </is>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HARRIS, KAMALA D.</t>
+          <t>BOOKER, CORY A.</t>
         </is>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOOKER, CORY A.</t>
+          <t>HARRIS, KAMALA D.</t>
         </is>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -478,27 +478,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HICKENLOOPER, JOHN W.</t>
+          <t>O'ROURKE, BETO</t>
         </is>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>O'ROURKE, BETO</t>
+          <t>HICKENLOOPER, JOHN W.</t>
         </is>
       </c>
       <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -583,7 +580,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
